--- a/EXCEL/my pratice/day2.xlsx
+++ b/EXCEL/my pratice/day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1440E7A2-EF08-41B8-9264-347040E3F050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB788A44-9ED8-46AD-B8D8-B76EECDDEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
+    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,15 +1001,15 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f ca="1">IF(D2=1,5,IF(D2=2,4,IF(D2=3,3,IF(D2=4,2,IF(D2=5,1,"please check")))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f ca="1">D2*$G$1</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1061,15 +1061,15 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1104,15 +1104,15 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K9" si="3">H6</f>
@@ -1156,15 +1156,15 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f ca="1">IF(D8=1,5,IF(D8=2,4,IF(D8=3,3,IF(D8=4,2,IF(D8=5,1,"please check")))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -1182,15 +1182,15 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -1292,15 +1292,15 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D11" ca="1" si="0">IF(C2=1,5,IF(C2=2,4,IF(C2=3,3,IF(C2=4,2,IF(C2=5,1,"please check")))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E9" ca="1" si="1">D2*$F$1</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -1325,15 +1325,15 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C11" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
@@ -1358,15 +1358,15 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -1391,15 +1391,15 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
@@ -1424,15 +1424,15 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1451,15 +1451,15 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>10</v>
@@ -1493,15 +1493,15 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -1535,15 +1535,15 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>10</v>
